--- a/excel/exported/ingredients.xlsx
+++ b/excel/exported/ingredients.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
   <si>
     <t>K</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>2021-05-20 08:17:51.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210603</t>
+  </si>
+  <si>
+    <t>2021-06-03 08:09:58.0000000</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1075,6 +1081,20 @@
         <v>102</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/excel/exported/ingredients.xlsx
+++ b/excel/exported/ingredients.xlsx
@@ -13,36 +13,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>2021-03-30 14:48:15.0000000</t>
-  </si>
-  <si>
-    <t>18DM</t>
-  </si>
-  <si>
-    <t>2021-04-05 08:54:39.0000000</t>
-  </si>
-  <si>
-    <t>18 DM</t>
-  </si>
-  <si>
-    <t>2021-04-06 09:25:26.0000000</t>
-  </si>
-  <si>
-    <t>18KD</t>
-  </si>
-  <si>
-    <t>2021-04-15 08:55:35.0000000</t>
-  </si>
-  <si>
-    <t>18SB</t>
-  </si>
-  <si>
-    <t>2021-06-30 17:38:23.0000000</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Kopi</t>
+  </si>
+  <si>
+    <t>2020-10-07 02:58:22.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-07 18:01:09.0000000</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Bahan Pembantu</t>
+  </si>
+  <si>
+    <t>2020-10-08 00:51:26.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-07 18:01:27.0000000</t>
+  </si>
+  <si>
+    <t>tes</t>
+  </si>
+  <si>
+    <t>2020-10-08 15:00:21.0000000</t>
+  </si>
+  <si>
+    <t>Gula</t>
+  </si>
+  <si>
+    <t>2020-10-08 15:29:22.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-SA)</t>
+  </si>
+  <si>
+    <t>2020-10-09 08:58:46.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-ZA)</t>
+  </si>
+  <si>
+    <t>2020-10-09 09:59:23.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-KI)</t>
+  </si>
+  <si>
+    <t>2020-10-09 13:52:24.0000000</t>
+  </si>
+  <si>
+    <t>sdaw</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:20:38.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-09 16:48:34.0000000</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Jagung/Godok</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>2020-10-09 18:32:36.0000000</t>
+  </si>
+  <si>
+    <t>Jagung</t>
+  </si>
+  <si>
+    <t>2020-10-09 18:34:43.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-ZA0</t>
+  </si>
+  <si>
+    <t>2020-10-10 09:22:19.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-GN)</t>
+  </si>
+  <si>
+    <t>2020-10-10 09:23:23.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (09-KD)</t>
+  </si>
+  <si>
+    <t>2020-10-12 08:05:04.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (09-DM)</t>
+  </si>
+  <si>
+    <t>2020-10-12 08:15:28.0000000</t>
+  </si>
+  <si>
+    <t>GODOK (GDK-01)</t>
+  </si>
+  <si>
+    <t>2020-10-13 10:07:20.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (10-SM)</t>
+  </si>
+  <si>
+    <t>2020-10-14 08:19:38.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (10-TT)</t>
+  </si>
+  <si>
+    <t>2020-10-16 09:02:18.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (10-AL)</t>
+  </si>
+  <si>
+    <t>2020-10-19 09:15:48.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-KD)</t>
+  </si>
+  <si>
+    <t>2020-10-26 07:33:38.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-ZAI)</t>
+  </si>
+  <si>
+    <t>2020-10-28 07:01:56.0000000</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>2020-10-31 10:31:40.0000000</t>
+  </si>
+  <si>
+    <t>K200185</t>
+  </si>
+  <si>
+    <t>2020-11-02 08:12:14.0000000</t>
+  </si>
+  <si>
+    <t>BIJI KOPI (07-KI)</t>
+  </si>
+  <si>
+    <t>2020-11-11 07:30:22.0000000</t>
+  </si>
+  <si>
+    <t>BIJI KOPI (07-ZA)</t>
+  </si>
+  <si>
+    <t>2020-11-11 08:17:39.0000000</t>
+  </si>
+  <si>
+    <t>BIJI KOPI (10-SM)</t>
+  </si>
+  <si>
+    <t>2020-11-11 13:27:06.0000000</t>
+  </si>
+  <si>
+    <t>BIJI KOPI (09-KD)</t>
+  </si>
+  <si>
+    <t>2020-11-11 13:44:30.0000000</t>
+  </si>
+  <si>
+    <t>BIJI KOPI (07-SA)</t>
+  </si>
+  <si>
+    <t>2020-11-12 07:26:59.0000000</t>
+  </si>
+  <si>
+    <t>129/XI/SCO.TMG/SJA II/2020</t>
+  </si>
+  <si>
+    <t>2020-11-17 08:20:51.0000000</t>
+  </si>
+  <si>
+    <t>BIJI KOPI (07-KD)</t>
+  </si>
+  <si>
+    <t>2020-11-23 07:26:09.0000000</t>
+  </si>
+  <si>
+    <t>BIJI KOPI (09-DM)</t>
+  </si>
+  <si>
+    <t>2020-11-23 07:28:29.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-YS)</t>
+  </si>
+  <si>
+    <t>2020-11-26 07:32:55.0000000</t>
+  </si>
+  <si>
+    <t>PT. SULOTCO JAYA ABADI' / TEMANGGUNG</t>
+  </si>
+  <si>
+    <t>2020-12-10 07:36:48.0000000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2020-12-15 15:32:00.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-HL)</t>
+  </si>
+  <si>
+    <t>2021-01-04 08:50:06.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (07-PC)</t>
+  </si>
+  <si>
+    <t>2021-01-14 08:35:13.0000000</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>2021-01-30 10:28:10.0000000</t>
+  </si>
+  <si>
+    <t>PT DEMPO MANDIRI</t>
+  </si>
+  <si>
+    <t>2021-02-01 07:42:43.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (09-TT)</t>
+  </si>
+  <si>
+    <t>2021-02-01 14:36:29.0000000</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>2021-02-03 15:56:34.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (09-SM)</t>
+  </si>
+  <si>
+    <t>2021-02-09 08:43:21.0000000</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>2021-02-18 15:36:15.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (09-SB)</t>
+  </si>
+  <si>
+    <t>2021-03-03 14:21:41.0000000</t>
+  </si>
+  <si>
+    <t>GDK-01</t>
+  </si>
+  <si>
+    <t>2021-03-12 07:44:34.0000000</t>
+  </si>
+  <si>
+    <t>G0.ZAXX.210312</t>
+  </si>
+  <si>
+    <t>2021-03-12 07:59:59.0000000</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2021-03-15 10:41:40.0000000</t>
+  </si>
+  <si>
+    <t>G0.ZAXX.210317</t>
+  </si>
+  <si>
+    <t>2021-03-17 08:02:43.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210422</t>
+  </si>
+  <si>
+    <t>2021-04-22 13:25:41.0000000</t>
+  </si>
+  <si>
+    <t>KOPI BIJI (09-AM)</t>
+  </si>
+  <si>
+    <t>2021-05-20 08:17:51.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210603</t>
+  </si>
+  <si>
+    <t>2021-06-03 08:09:58.0000000</t>
+  </si>
+  <si>
+    <t>GDK (01)</t>
+  </si>
+  <si>
+    <t>2021-07-09 08:26:24.0000000</t>
+  </si>
+  <si>
+    <t>GDK - 01</t>
+  </si>
+  <si>
+    <t>2021-07-09 14:11:29.0000000</t>
+  </si>
+  <si>
+    <t>PT SULOTCO JAYA ABADI.</t>
+  </si>
+  <si>
+    <t>2021-07-12 08:15:23.0000000</t>
+  </si>
+  <si>
+    <t>G0.TTXX.210715</t>
+  </si>
+  <si>
+    <t>2021-07-15 08:10:01.0000000</t>
+  </si>
+  <si>
+    <t>G0.KDXX.210716</t>
+  </si>
+  <si>
+    <t>2021-07-16 07:37:52.0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KOPI BIJI (07-ZA)</t>
+  </si>
+  <si>
+    <t>2021-07-24 08:22:23.0000000</t>
+  </si>
+  <si>
+    <t>09-DM</t>
+  </si>
+  <si>
+    <t>2021-08-23 09:19:39.0000000</t>
   </si>
 </sst>
 </file>
@@ -86,77 +413,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G57"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>110</v>
+      </c>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
